--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Adam9-Itga6.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Adam9-Itga6.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.23103074181342</v>
+        <v>10.36733066666667</v>
       </c>
       <c r="H2">
-        <v>9.23103074181342</v>
+        <v>31.101992</v>
       </c>
       <c r="I2">
-        <v>0.1084244385164053</v>
+        <v>0.1169328841728879</v>
       </c>
       <c r="J2">
-        <v>0.1084244385164053</v>
+        <v>0.1169328841728879</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>101.819279703334</v>
+        <v>136.6884486666667</v>
       </c>
       <c r="N2">
-        <v>101.819279703334</v>
+        <v>410.065346</v>
       </c>
       <c r="O2">
-        <v>0.7027478849135871</v>
+        <v>0.7423691870207686</v>
       </c>
       <c r="P2">
-        <v>0.7027478849135871</v>
+        <v>0.7423691870207685</v>
       </c>
       <c r="Q2">
-        <v>939.8969010507755</v>
+        <v>1417.094345641025</v>
       </c>
       <c r="R2">
-        <v>939.8969010507755</v>
+        <v>12753.84911076923</v>
       </c>
       <c r="S2">
-        <v>0.0761950448403471</v>
+        <v>0.0868073701594205</v>
       </c>
       <c r="T2">
-        <v>0.0761950448403471</v>
+        <v>0.0868073701594205</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.23103074181342</v>
+        <v>10.36733066666667</v>
       </c>
       <c r="H3">
-        <v>9.23103074181342</v>
+        <v>31.101992</v>
       </c>
       <c r="I3">
-        <v>0.1084244385164053</v>
+        <v>0.1169328841728879</v>
       </c>
       <c r="J3">
-        <v>0.1084244385164053</v>
+        <v>0.1169328841728879</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.643322410429334</v>
+        <v>0.8952453333333334</v>
       </c>
       <c r="N3">
-        <v>0.643322410429334</v>
+        <v>2.685736</v>
       </c>
       <c r="O3">
-        <v>0.004440155779573066</v>
+        <v>0.004862170554817893</v>
       </c>
       <c r="P3">
-        <v>0.004440155779573066</v>
+        <v>0.004862170554817893</v>
       </c>
       <c r="Q3">
-        <v>5.938528947570693</v>
+        <v>9.281304398456889</v>
       </c>
       <c r="R3">
-        <v>5.938528947570693</v>
+        <v>83.531739586112</v>
       </c>
       <c r="S3">
-        <v>0.0004814213973255816</v>
+        <v>0.0005685476263153468</v>
       </c>
       <c r="T3">
-        <v>0.0004814213973255816</v>
+        <v>0.0005685476263153469</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.23103074181342</v>
+        <v>10.36733066666667</v>
       </c>
       <c r="H4">
-        <v>9.23103074181342</v>
+        <v>31.101992</v>
       </c>
       <c r="I4">
-        <v>0.1084244385164053</v>
+        <v>0.1169328841728879</v>
       </c>
       <c r="J4">
-        <v>0.1084244385164053</v>
+        <v>0.1169328841728879</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>38.176141651177</v>
+        <v>41.63761133333333</v>
       </c>
       <c r="N4">
-        <v>38.176141651177</v>
+        <v>124.912834</v>
       </c>
       <c r="O4">
-        <v>0.2634884363520759</v>
+        <v>0.2261381995079395</v>
       </c>
       <c r="P4">
-        <v>0.2634884363520759</v>
+        <v>0.2261381995079395</v>
       </c>
       <c r="Q4">
-        <v>352.4051371858386</v>
+        <v>431.6708848628141</v>
       </c>
       <c r="R4">
-        <v>352.4051371858386</v>
+        <v>3885.037963765328</v>
       </c>
       <c r="S4">
-        <v>0.02856858576703942</v>
+        <v>0.0264429918901273</v>
       </c>
       <c r="T4">
-        <v>0.02856858576703942</v>
+        <v>0.0264429918901273</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.23103074181342</v>
+        <v>10.36733066666667</v>
       </c>
       <c r="H5">
-        <v>9.23103074181342</v>
+        <v>31.101992</v>
       </c>
       <c r="I5">
-        <v>0.1084244385164053</v>
+        <v>0.1169328841728879</v>
       </c>
       <c r="J5">
-        <v>0.1084244385164053</v>
+        <v>0.1169328841728879</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.2486075728074</v>
+        <v>4.903320333333333</v>
       </c>
       <c r="N5">
-        <v>4.2486075728074</v>
+        <v>14.709961</v>
       </c>
       <c r="O5">
-        <v>0.02932352295476399</v>
+        <v>0.02663044291647413</v>
       </c>
       <c r="P5">
-        <v>0.02932352295476399</v>
+        <v>0.02663044291647413</v>
       </c>
       <c r="Q5">
-        <v>39.21902711448641</v>
+        <v>50.83434326025689</v>
       </c>
       <c r="R5">
-        <v>39.21902711448641</v>
+        <v>457.5090893423119</v>
       </c>
       <c r="S5">
-        <v>0.003179386511693208</v>
+        <v>0.003113974497024773</v>
       </c>
       <c r="T5">
-        <v>0.003179386511693208</v>
+        <v>0.003113974497024773</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>37.8563825880878</v>
+        <v>37.91490933333333</v>
       </c>
       <c r="H6">
-        <v>37.8563825880878</v>
+        <v>113.744728</v>
       </c>
       <c r="I6">
-        <v>0.4446477474918807</v>
+        <v>0.4276413904453658</v>
       </c>
       <c r="J6">
-        <v>0.4446477474918807</v>
+        <v>0.4276413904453659</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>101.819279703334</v>
+        <v>136.6884486666667</v>
       </c>
       <c r="N6">
-        <v>101.819279703334</v>
+        <v>410.065346</v>
       </c>
       <c r="O6">
-        <v>0.7027478849135871</v>
+        <v>0.7423691870207686</v>
       </c>
       <c r="P6">
-        <v>0.7027478849135871</v>
+        <v>0.7423691870207685</v>
       </c>
       <c r="Q6">
-        <v>3854.509607292935</v>
+        <v>5182.530138110654</v>
       </c>
       <c r="R6">
-        <v>3854.509607292935</v>
+        <v>46642.77124299589</v>
       </c>
       <c r="S6">
-        <v>0.3124752640815099</v>
+        <v>0.3174677913613573</v>
       </c>
       <c r="T6">
-        <v>0.3124752640815099</v>
+        <v>0.3174677913613573</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>37.8563825880878</v>
+        <v>37.91490933333333</v>
       </c>
       <c r="H7">
-        <v>37.8563825880878</v>
+        <v>113.744728</v>
       </c>
       <c r="I7">
-        <v>0.4446477474918807</v>
+        <v>0.4276413904453658</v>
       </c>
       <c r="J7">
-        <v>0.4446477474918807</v>
+        <v>0.4276413904453659</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.643322410429334</v>
+        <v>0.8952453333333334</v>
       </c>
       <c r="N7">
-        <v>0.643322410429334</v>
+        <v>2.685736</v>
       </c>
       <c r="O7">
-        <v>0.004440155779573066</v>
+        <v>0.004862170554817893</v>
       </c>
       <c r="P7">
-        <v>0.004440155779573066</v>
+        <v>0.004862170554817893</v>
       </c>
       <c r="Q7">
-        <v>24.35385929670371</v>
+        <v>33.94314564442312</v>
       </c>
       <c r="R7">
-        <v>24.35385929670371</v>
+        <v>305.4883107998081</v>
       </c>
       <c r="S7">
-        <v>0.001974305265900219</v>
+        <v>0.002079265376644839</v>
       </c>
       <c r="T7">
-        <v>0.001974305265900219</v>
+        <v>0.00207926537664484</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>37.8563825880878</v>
+        <v>37.91490933333333</v>
       </c>
       <c r="H8">
-        <v>37.8563825880878</v>
+        <v>113.744728</v>
       </c>
       <c r="I8">
-        <v>0.4446477474918807</v>
+        <v>0.4276413904453658</v>
       </c>
       <c r="J8">
-        <v>0.4446477474918807</v>
+        <v>0.4276413904453659</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>38.176141651177</v>
+        <v>41.63761133333333</v>
       </c>
       <c r="N8">
-        <v>38.176141651177</v>
+        <v>124.912834</v>
       </c>
       <c r="O8">
-        <v>0.2634884363520759</v>
+        <v>0.2261381995079395</v>
       </c>
       <c r="P8">
-        <v>0.2634884363520759</v>
+        <v>0.2261381995079395</v>
       </c>
       <c r="Q8">
-        <v>1445.21062408399</v>
+        <v>1578.686258559906</v>
       </c>
       <c r="R8">
-        <v>1445.21062408399</v>
+        <v>14208.17632703915</v>
       </c>
       <c r="S8">
-        <v>0.1171595397141083</v>
+        <v>0.09670605407038675</v>
       </c>
       <c r="T8">
-        <v>0.1171595397141083</v>
+        <v>0.09670605407038678</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>37.8563825880878</v>
+        <v>37.91490933333333</v>
       </c>
       <c r="H9">
-        <v>37.8563825880878</v>
+        <v>113.744728</v>
       </c>
       <c r="I9">
-        <v>0.4446477474918807</v>
+        <v>0.4276413904453658</v>
       </c>
       <c r="J9">
-        <v>0.4446477474918807</v>
+        <v>0.4276413904453659</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.2486075728074</v>
+        <v>4.903320333333333</v>
       </c>
       <c r="N9">
-        <v>4.2486075728074</v>
+        <v>14.709961</v>
       </c>
       <c r="O9">
-        <v>0.02932352295476399</v>
+        <v>0.02663044291647413</v>
       </c>
       <c r="P9">
-        <v>0.02932352295476399</v>
+        <v>0.02663044291647413</v>
       </c>
       <c r="Q9">
-        <v>160.836913742844</v>
+        <v>185.9089458706231</v>
       </c>
       <c r="R9">
-        <v>160.836913742844</v>
+        <v>1673.180512835608</v>
       </c>
       <c r="S9">
-        <v>0.01303863843036226</v>
+        <v>0.01138827963697694</v>
       </c>
       <c r="T9">
-        <v>0.01303863843036226</v>
+        <v>0.01138827963697694</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>24.9010641635131</v>
+        <v>26.72147866666667</v>
       </c>
       <c r="H10">
-        <v>24.9010641635131</v>
+        <v>80.16443599999999</v>
       </c>
       <c r="I10">
-        <v>0.2924791365020958</v>
+        <v>0.3013909433702152</v>
       </c>
       <c r="J10">
-        <v>0.2924791365020958</v>
+        <v>0.3013909433702153</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>101.819279703334</v>
+        <v>136.6884486666667</v>
       </c>
       <c r="N10">
-        <v>101.819279703334</v>
+        <v>410.065346</v>
       </c>
       <c r="O10">
-        <v>0.7027478849135871</v>
+        <v>0.7423691870207686</v>
       </c>
       <c r="P10">
-        <v>0.7027478849135871</v>
+        <v>0.7423691870207685</v>
       </c>
       <c r="Q10">
-        <v>2535.408416975407</v>
+        <v>3652.517465026095</v>
       </c>
       <c r="R10">
-        <v>2535.408416975407</v>
+        <v>32872.65718523485</v>
       </c>
       <c r="S10">
-        <v>0.2055390945582001</v>
+        <v>0.2237433496051692</v>
       </c>
       <c r="T10">
-        <v>0.2055390945582001</v>
+        <v>0.2237433496051692</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>24.9010641635131</v>
+        <v>26.72147866666667</v>
       </c>
       <c r="H11">
-        <v>24.9010641635131</v>
+        <v>80.16443599999999</v>
       </c>
       <c r="I11">
-        <v>0.2924791365020958</v>
+        <v>0.3013909433702152</v>
       </c>
       <c r="J11">
-        <v>0.2924791365020958</v>
+        <v>0.3013909433702153</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.643322410429334</v>
+        <v>0.8952453333333334</v>
       </c>
       <c r="N11">
-        <v>0.643322410429334</v>
+        <v>2.685736</v>
       </c>
       <c r="O11">
-        <v>0.004440155779573066</v>
+        <v>0.004862170554817893</v>
       </c>
       <c r="P11">
-        <v>0.004440155779573066</v>
+        <v>0.004862170554817893</v>
       </c>
       <c r="Q11">
-        <v>16.01941261992676</v>
+        <v>23.92227907609956</v>
       </c>
       <c r="R11">
-        <v>16.01941261992676</v>
+        <v>215.300511684896</v>
       </c>
       <c r="S11">
-        <v>0.00129865292834432</v>
+        <v>0.001465414170343447</v>
       </c>
       <c r="T11">
-        <v>0.00129865292834432</v>
+        <v>0.001465414170343448</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>24.9010641635131</v>
+        <v>26.72147866666667</v>
       </c>
       <c r="H12">
-        <v>24.9010641635131</v>
+        <v>80.16443599999999</v>
       </c>
       <c r="I12">
-        <v>0.2924791365020958</v>
+        <v>0.3013909433702152</v>
       </c>
       <c r="J12">
-        <v>0.2924791365020958</v>
+        <v>0.3013909433702153</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>38.176141651177</v>
+        <v>41.63761133333333</v>
       </c>
       <c r="N12">
-        <v>38.176141651177</v>
+        <v>124.912834</v>
       </c>
       <c r="O12">
-        <v>0.2634884363520759</v>
+        <v>0.2261381995079395</v>
       </c>
       <c r="P12">
-        <v>0.2634884363520759</v>
+        <v>0.2261381995079395</v>
       </c>
       <c r="Q12">
-        <v>950.6265527713234</v>
+        <v>1112.618542974625</v>
       </c>
       <c r="R12">
-        <v>950.6265527713234</v>
+        <v>10013.56688677162</v>
       </c>
       <c r="S12">
-        <v>0.07706487034254257</v>
+        <v>0.0681560052817398</v>
       </c>
       <c r="T12">
-        <v>0.07706487034254257</v>
+        <v>0.06815600528173982</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>24.9010641635131</v>
+        <v>26.72147866666667</v>
       </c>
       <c r="H13">
-        <v>24.9010641635131</v>
+        <v>80.16443599999999</v>
       </c>
       <c r="I13">
-        <v>0.2924791365020958</v>
+        <v>0.3013909433702152</v>
       </c>
       <c r="J13">
-        <v>0.2924791365020958</v>
+        <v>0.3013909433702153</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.2486075728074</v>
+        <v>4.903320333333333</v>
       </c>
       <c r="N13">
-        <v>4.2486075728074</v>
+        <v>14.709961</v>
       </c>
       <c r="O13">
-        <v>0.02932352295476399</v>
+        <v>0.02663044291647413</v>
       </c>
       <c r="P13">
-        <v>0.02932352295476399</v>
+        <v>0.02663044291647413</v>
       </c>
       <c r="Q13">
-        <v>105.7948497760647</v>
+        <v>131.0239696829996</v>
       </c>
       <c r="R13">
-        <v>105.7948497760647</v>
+        <v>1179.215727146996</v>
       </c>
       <c r="S13">
-        <v>0.008576518673008755</v>
+        <v>0.008026174312962804</v>
       </c>
       <c r="T13">
-        <v>0.008576518673008755</v>
+        <v>0.008026174312962804</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.1494385347762</v>
+        <v>13.65680433333333</v>
       </c>
       <c r="H14">
-        <v>13.1494385347762</v>
+        <v>40.970413</v>
       </c>
       <c r="I14">
-        <v>0.1544486774896183</v>
+        <v>0.154034782011531</v>
       </c>
       <c r="J14">
-        <v>0.1544486774896183</v>
+        <v>0.154034782011531</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>101.819279703334</v>
+        <v>136.6884486666667</v>
       </c>
       <c r="N14">
-        <v>101.819279703334</v>
+        <v>410.065346</v>
       </c>
       <c r="O14">
-        <v>0.7027478849135871</v>
+        <v>0.7423691870207686</v>
       </c>
       <c r="P14">
-        <v>0.7027478849135871</v>
+        <v>0.7423691870207685</v>
       </c>
       <c r="Q14">
-        <v>1338.866360114176</v>
+        <v>1866.727398067544</v>
       </c>
       <c r="R14">
-        <v>1338.866360114176</v>
+        <v>16800.5465826079</v>
       </c>
       <c r="S14">
-        <v>0.10853848143353</v>
+        <v>0.1143506758948216</v>
       </c>
       <c r="T14">
-        <v>0.10853848143353</v>
+        <v>0.1143506758948216</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.1494385347762</v>
+        <v>13.65680433333333</v>
       </c>
       <c r="H15">
-        <v>13.1494385347762</v>
+        <v>40.970413</v>
       </c>
       <c r="I15">
-        <v>0.1544486774896183</v>
+        <v>0.154034782011531</v>
       </c>
       <c r="J15">
-        <v>0.1544486774896183</v>
+        <v>0.154034782011531</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.643322410429334</v>
+        <v>0.8952453333333334</v>
       </c>
       <c r="N15">
-        <v>0.643322410429334</v>
+        <v>2.685736</v>
       </c>
       <c r="O15">
-        <v>0.004440155779573066</v>
+        <v>0.004862170554817893</v>
       </c>
       <c r="P15">
-        <v>0.004440155779573066</v>
+        <v>0.004862170554817893</v>
       </c>
       <c r="Q15">
-        <v>8.459328493984595</v>
+        <v>12.22619034766311</v>
       </c>
       <c r="R15">
-        <v>8.459328493984595</v>
+        <v>110.035713128968</v>
       </c>
       <c r="S15">
-        <v>0.0006857761880029451</v>
+        <v>0.0007489433815142589</v>
       </c>
       <c r="T15">
-        <v>0.0006857761880029451</v>
+        <v>0.0007489433815142591</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.1494385347762</v>
+        <v>13.65680433333333</v>
       </c>
       <c r="H16">
-        <v>13.1494385347762</v>
+        <v>40.970413</v>
       </c>
       <c r="I16">
-        <v>0.1544486774896183</v>
+        <v>0.154034782011531</v>
       </c>
       <c r="J16">
-        <v>0.1544486774896183</v>
+        <v>0.154034782011531</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>38.176141651177</v>
+        <v>41.63761133333333</v>
       </c>
       <c r="N16">
-        <v>38.176141651177</v>
+        <v>124.912834</v>
       </c>
       <c r="O16">
-        <v>0.2634884363520759</v>
+        <v>0.2261381995079395</v>
       </c>
       <c r="P16">
-        <v>0.2634884363520759</v>
+        <v>0.2261381995079395</v>
       </c>
       <c r="Q16">
-        <v>501.9948281370615</v>
+        <v>568.6367108867157</v>
       </c>
       <c r="R16">
-        <v>501.9948281370615</v>
+        <v>5117.730397980442</v>
       </c>
       <c r="S16">
-        <v>0.04069544052838558</v>
+        <v>0.03483314826568557</v>
       </c>
       <c r="T16">
-        <v>0.04069544052838558</v>
+        <v>0.03483314826568557</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.1494385347762</v>
+        <v>13.65680433333333</v>
       </c>
       <c r="H17">
-        <v>13.1494385347762</v>
+        <v>40.970413</v>
       </c>
       <c r="I17">
-        <v>0.1544486774896183</v>
+        <v>0.154034782011531</v>
       </c>
       <c r="J17">
-        <v>0.1544486774896183</v>
+        <v>0.154034782011531</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.2486075728074</v>
+        <v>4.903320333333333</v>
       </c>
       <c r="N17">
-        <v>4.2486075728074</v>
+        <v>14.709961</v>
       </c>
       <c r="O17">
-        <v>0.02932352295476399</v>
+        <v>0.02663044291647413</v>
       </c>
       <c r="P17">
-        <v>0.02932352295476399</v>
+        <v>0.02663044291647413</v>
       </c>
       <c r="Q17">
-        <v>55.86680413701561</v>
+        <v>66.96368637598812</v>
       </c>
       <c r="R17">
-        <v>55.86680413701561</v>
+        <v>602.6731773838929</v>
       </c>
       <c r="S17">
-        <v>0.004528979339699761</v>
+        <v>0.004102014469509613</v>
       </c>
       <c r="T17">
-        <v>0.004528979339699761</v>
+        <v>0.004102014469509613</v>
       </c>
     </row>
   </sheetData>
